--- a/resources/Radom_Data_User_Api_Load_Testing .xlsx
+++ b/resources/Radom_Data_User_Api_Load_Testing .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Load Test Strategy</t>
   </si>
@@ -37,15 +37,27 @@
     <t>Error %</t>
   </si>
   <si>
+    <t>Thoughput per test</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <t>Test Value</t>
   </si>
   <si>
+    <t>Test Completed Successfully without any error and Loss of Throughput</t>
+  </si>
+  <si>
     <t>Expected TPS</t>
   </si>
   <si>
     <t>Test - 1</t>
   </si>
   <si>
+    <t>2.8(upto 1d.p)</t>
+  </si>
+  <si>
     <t>Test - 2</t>
   </si>
   <si>
@@ -56,13 +68,19 @@
   </si>
   <si>
     <t>Actual TPS</t>
+  </si>
+  <si>
+    <t>2.78(upto 2d.p)</t>
+  </si>
+  <si>
+    <t>Load test Successful. Actual TPS and Expected TPS remained the same.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -80,6 +98,18 @@
       <b/>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -126,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -168,6 +198,36 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -176,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -197,7 +257,13 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -209,13 +275,24 @@
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="6" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,6 +510,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="7" max="7" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="24.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -442,7 +524,9 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -452,7 +536,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
@@ -473,10 +559,16 @@
       <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
         <v>12.0</v>
@@ -491,6 +583,8 @@
         <v>120000.0</v>
       </c>
       <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
@@ -508,152 +602,187 @@
         <v>10000</v>
       </c>
       <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12">
         <v>0.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>1.0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <f>E5/D5</f>
         <v>2.777777778</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12">
         <v>1.0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>60.0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <f>E6*D7</f>
         <v>166.6666667</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>0.0</v>
       </c>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12">
         <v>5.0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <f>C8*D7</f>
         <v>300</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <f>E6*D8</f>
         <v>833.3333333</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>0.0</v>
       </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <v>10.0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f>C9*D7</f>
         <v>600</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <f>D9*E6</f>
         <v>1666.666667</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>0.0</v>
       </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
         <v>15.0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <f>C10*D7</f>
         <v>900</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <f>D10*E6</f>
         <v>2500</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>0.0</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11">
-        <f>E10/D10</f>
-        <v>2.777777778</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>

--- a/resources/Radom_Data_User_Api_Load_Testing .xlsx
+++ b/resources/Radom_Data_User_Api_Load_Testing .xlsx
@@ -1,12 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SDET Course\Assignment\Assignment 3 (API-Performance-Test)\Performance Testing\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C6037-4B6F-462A-A478-049A3DB266BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,45 +98,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,43 +181,47 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -201,6 +231,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -212,6 +243,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -220,6 +255,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -228,87 +268,100 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -498,284 +551,289 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="16.25"/>
-    <col customWidth="1" min="8" max="8" width="24.38"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>720.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43200.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>120000.0</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3600.0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B4" s="19">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19">
+        <v>720</v>
+      </c>
+      <c r="D4" s="19">
+        <v>43200</v>
+      </c>
+      <c r="E4" s="19">
+        <v>120000</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>60</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3600</v>
+      </c>
+      <c r="E5" s="19">
         <f>E4/B4</f>
         <v>10000</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <f>E5/D5</f>
-        <v>2.777777778</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>60.0</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3">
         <f>E6*D7</f>
-        <v>166.6666667</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <f>C8*D7</f>
         <v>300</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="3">
         <f>E6*D8</f>
-        <v>833.3333333</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="12" t="s">
+        <v>833.33333333333326</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
         <f>C9*D7</f>
         <v>600</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="3">
         <f>D9*E6</f>
-        <v>1666.666667</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>1666.6666666666665</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
         <f>C10*D7</f>
         <v>900</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="3">
         <f>D10*E6</f>
         <v>2500</v>
       </c>
-      <c r="F10" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -785,8 +843,8 @@
     <mergeCell ref="A12:H12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>